--- a/01_Doc/Pinlist.xlsx
+++ b/01_Doc/Pinlist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A37600B-5967-4B84-BD32-54E782386B48}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7CCC31-72B7-4567-96D5-AA443BC6F4F0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,9 +64,6 @@
     <t>OBS</t>
   </si>
   <si>
-    <t>PTE6</t>
-  </si>
-  <si>
     <t>JOYSTICK_BUTTON</t>
   </si>
   <si>
@@ -74,6 +71,9 @@
   </si>
   <si>
     <t>LCD_BACKLIGHT</t>
+  </si>
+  <si>
+    <t>PTH2</t>
   </si>
 </sst>
 </file>
@@ -159,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -179,6 +179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,7 +463,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,21 +531,23 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C8" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01_Doc/Pinlist.xlsx
+++ b/01_Doc/Pinlist.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7CCC31-72B7-4567-96D5-AA443BC6F4F0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA25925-67C4-458A-A71D-86DCA2837BFB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>PTD0</t>
   </si>
@@ -64,9 +64,6 @@
     <t>OBS</t>
   </si>
   <si>
-    <t>JOYSTICK_BUTTON</t>
-  </si>
-  <si>
     <t>PTC0</t>
   </si>
   <si>
@@ -74,6 +71,21 @@
   </si>
   <si>
     <t>PTH2</t>
+  </si>
+  <si>
+    <t>JS_BTN</t>
+  </si>
+  <si>
+    <t>PTF4</t>
+  </si>
+  <si>
+    <t>JS_VRX</t>
+  </si>
+  <si>
+    <t>PTF5</t>
+  </si>
+  <si>
+    <t>JS_VRY</t>
   </si>
 </sst>
 </file>
@@ -460,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,21 +545,37 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
